--- a/office/LAB17.xlsx
+++ b/office/LAB17.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jpr\django\pc-notebook\office\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hornir\Documents\GitHub\pc-notebook\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AC2BE8-D693-47E2-9DA2-1783E2098F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39210" yWindow="8235" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{9DD612FB-9176-495A-908A-B27D54D7DFCB}"/>
+    <workbookView xWindow="40152" yWindow="8232" windowWidth="28116" windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,14 +55,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="169" formatCode="[Green]#,##0.00\ &quot;₽&quot;;[Cyan]\-###,000\ &quot;₽&quot;"/>
-    <numFmt numFmtId="179" formatCode="[=9454789454]##,##0.00,;[=100]\ ###,#00&quot; км/ч&quot;;\ ##,##0.00&quot; м/с&quot;"/>
-    <numFmt numFmtId="180" formatCode="&quot;Доход:&quot;#,##0.#;&quot;Расход:&quot;\-#,##0.#;\ &quot;Ничего&quot;"/>
-    <numFmt numFmtId="181" formatCode="[&gt;50]\ &quot;Число &gt; 50&quot;;\ #,##0.0"/>
-    <numFmt numFmtId="182" formatCode="dddd"/>
+    <numFmt numFmtId="165" formatCode="[Green]#,##0.00\ &quot;₽&quot;;[Cyan]\-###,000\ &quot;₽&quot;"/>
+    <numFmt numFmtId="166" formatCode="[=9454789454]##,##0.00,;[=100]\ ###,#00&quot; км/ч&quot;;\ ##,##0.00&quot; м/с&quot;"/>
+    <numFmt numFmtId="167" formatCode="&quot;Доход:&quot;#,##0.#;&quot;Расход:&quot;\-#,##0.#;\ &quot;Ничего&quot;"/>
+    <numFmt numFmtId="168" formatCode="[&gt;50]\ &quot;Число &gt; 50&quot;;\ #,##0.0"/>
+    <numFmt numFmtId="169" formatCode="dddd"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -135,32 +134,33 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Стиль 1" xfId="1" xr:uid="{7A700CA8-AD84-4DA0-9EE0-171159C0180D}"/>
-    <cellStyle name="Стиль 2" xfId="2" xr:uid="{63AF28CE-62FE-4F19-9EE2-DCA5F7DD27CE}"/>
-    <cellStyle name="Стиль 3" xfId="3" xr:uid="{EDD46965-54B2-4849-A25C-BBAFB308FBEF}"/>
-    <cellStyle name="Стиль 4" xfId="4" xr:uid="{8A5E3013-64AF-4A0C-9468-5BCA9510B11A}"/>
-    <cellStyle name="Стиль 5" xfId="5" xr:uid="{BEA79388-1480-4104-9561-BDCED3F3F68C}"/>
+    <cellStyle name="Стиль 1" xfId="1"/>
+    <cellStyle name="Стиль 2" xfId="2"/>
+    <cellStyle name="Стиль 3" xfId="3"/>
+    <cellStyle name="Стиль 4" xfId="4"/>
+    <cellStyle name="Стиль 5" xfId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <font>
         <strike val="0"/>
@@ -183,24 +183,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -215,22 +197,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F27A4A9-87EE-4087-B10C-2093CB599C10}" name="Таблица1" displayName="Таблица1" ref="A1:E7" totalsRowShown="0" headerRowCellStyle="Стиль 1" dataCellStyle="Стиль 1">
-  <autoFilter ref="A1:E7" xr:uid="{6F27A4A9-87EE-4087-B10C-2093CB599C10}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E7" totalsRowShown="0" headerRowCellStyle="Стиль 1" dataCellStyle="Стиль 1">
+  <autoFilter ref="A1:E7"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{71AC00A5-E0CF-4DE5-93A7-1C1BF1C291FC}" name="Столбец1" dataCellStyle="Стиль 1">
+    <tableColumn id="1" name="Столбец1" dataCellStyle="Стиль 1">
       <calculatedColumnFormula>RANDBETWEEN(1,1000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BFABDAB9-33DF-4CE1-8E09-F0DAE1F5A23D}" name="Столбец2" dataCellStyle="Стиль 1">
+    <tableColumn id="2" name="Столбец2" dataCellStyle="Стиль 1">
       <calculatedColumnFormula>RANDBETWEEN(1,1000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{44B53DE2-B35C-44BC-AF9F-0205F4BE7800}" name="Столбец3" dataCellStyle="Стиль 1">
+    <tableColumn id="3" name="Столбец3" dataCellStyle="Стиль 1">
       <calculatedColumnFormula>RANDBETWEEN(1,1000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{70013799-ADEB-4346-B029-23B722AB9B7A}" name="Столбец4" dataCellStyle="Стиль 1">
+    <tableColumn id="4" name="Столбец4" dataCellStyle="Стиль 1">
       <calculatedColumnFormula>RANDBETWEEN(1,1000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9821B5A0-A550-4198-AE3E-EF1CFE75D74A}" name="Столбец5" dataCellStyle="Стиль 1">
+    <tableColumn id="5" name="Столбец5" dataCellStyle="Стиль 1">
       <calculatedColumnFormula>RANDBETWEEN(1,1000)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -534,20 +516,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19152CDC-AA0A-4E9F-8FDD-061813F8FEF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,159 +547,159 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <f ca="1">RANDBETWEEN(1,1000)</f>
-        <v>97</v>
+        <v>302</v>
       </c>
       <c r="B2" s="1">
         <f t="shared" ref="B2:E7" ca="1" si="0">RANDBETWEEN(1,1000)</f>
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>629</v>
+        <v>962</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>690</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A7" ca="1" si="1">RANDBETWEEN(1,1000)</f>
-        <v>568</v>
+        <v>959</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>627</v>
+        <v>122</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>760</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>698</v>
+        <v>353</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>961</v>
+        <v>705</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>854</v>
+        <v>186</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>889</v>
+        <v>827</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>625</v>
+        <v>848</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>627</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>787</v>
+        <v>297</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>376</v>
+        <v>966</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>135</v>
+        <v>571</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>948</v>
+        <v>785</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>540</v>
+        <v>645</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>108</v>
+        <v>973</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>167</v>
+        <v>661</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>420</v>
+        <v>92</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>731</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>918</v>
+        <v>785</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>487</v>
+        <v>323</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>265</v>
+        <v>667</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>914</v>
+        <v>532</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>684</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>10000.456</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E10">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>45.655000000000001</v>
       </c>
@@ -731,19 +714,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091F5C13-8565-4C1C-A58C-274E07B3B3A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист2"/>
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C1" sqref="C1:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>5</v>
       </c>
@@ -755,7 +739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>2</v>
       </c>
@@ -764,7 +748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>3</v>
       </c>
@@ -773,7 +757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>4</v>
       </c>
@@ -782,7 +766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>5</v>
       </c>
@@ -791,7 +775,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>6</v>
       </c>
@@ -800,7 +784,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>7</v>
       </c>
@@ -809,7 +793,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>8</v>
       </c>
@@ -818,7 +802,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>9</v>
       </c>
@@ -827,7 +811,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>10</v>
       </c>
@@ -836,7 +820,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>11</v>
       </c>
@@ -845,7 +829,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>12</v>
       </c>
@@ -854,7 +838,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>13</v>
       </c>
@@ -863,7 +847,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>14</v>
       </c>
@@ -872,7 +856,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>15</v>
       </c>
@@ -900,23 +884,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1BD47C-AA27-465B-A240-D5FE1A711A43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист3"/>
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -947,8 +933,12 @@
         <f>I1</f>
         <v>48602</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K1">
+        <f>WEEKDAY(I1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G2">
         <v>2</v>
       </c>
@@ -960,8 +950,12 @@
         <f t="shared" ref="J2:J12" si="1">I2</f>
         <v>48633</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f t="shared" ref="K2:K12" si="2">WEEKDAY(I2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4568</v>
       </c>
@@ -980,8 +974,12 @@
         <f t="shared" si="1"/>
         <v>48661</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G4">
         <v>4</v>
       </c>
@@ -993,15 +991,19 @@
         <f t="shared" si="1"/>
         <v>48692</v>
       </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
       <c r="M4">
         <f>NETWORKDAYS("01.11.2032","30.11.2032")</f>
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f>_xlfn.DAYS("27.12.2022","24.09.2001")</f>
-        <v>7764</v>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <f ca="1">TODAY() - "24.09.2001"</f>
+        <v>7765</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1014,8 +1016,12 @@
         <f t="shared" si="1"/>
         <v>48722</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G6">
         <v>6</v>
       </c>
@@ -1027,8 +1033,12 @@
         <f t="shared" si="1"/>
         <v>48753</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G7">
         <v>7</v>
       </c>
@@ -1040,8 +1050,12 @@
         <f t="shared" si="1"/>
         <v>48783</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G8">
         <v>8</v>
       </c>
@@ -1053,8 +1067,12 @@
         <f t="shared" si="1"/>
         <v>48814</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G9">
         <v>9</v>
       </c>
@@ -1066,8 +1084,12 @@
         <f t="shared" si="1"/>
         <v>48845</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G10">
         <v>10</v>
       </c>
@@ -1076,11 +1098,15 @@
         <v>48875</v>
       </c>
       <c r="J10" s="7">
-        <f t="shared" si="1"/>
+        <f>I10</f>
         <v>48875</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G11">
         <v>11</v>
       </c>
@@ -1092,8 +1118,12 @@
         <f t="shared" si="1"/>
         <v>48906</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G12">
         <v>12</v>
       </c>
@@ -1105,9 +1135,14 @@
         <f t="shared" si="1"/>
         <v>48936</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J14">
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J14" s="8">
+        <f>COUNTIF(K1:K12,  7)</f>
         <v>2</v>
       </c>
     </row>
